--- a/English.xlsx
+++ b/English.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>长连接</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,58 @@
   </si>
   <si>
     <t>桨 船桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地位 级别 军衔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计 合计 聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局 密谋 画出 标出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -529,168 +581,460 @@
     <col min="1" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2">
+        <f>_xlfn.RANK.AVG(C2,$C$2:$C$23)</f>
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E23" si="0">_xlfn.RANK.EQ(C2,$C$2:$C$23,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D23" si="1">_xlfn.RANK.AVG(C3,$C$2:$C$23)</f>
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/English.xlsx
+++ b/English.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>长连接</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -225,6 +225,34 @@
   </si>
   <si>
     <t>布局 密谋 画出 标出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒 散落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squarify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地的 磁极的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馅饼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1032,6 +1060,35 @@
         <v>52</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/English.xlsx
+++ b/English.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>长连接</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>馅饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推销员 销售代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚实的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1051,6 +1063,9 @@
       <c r="B24" t="s">
         <v>50</v>
       </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
@@ -1059,6 +1074,9 @@
       <c r="B25" t="s">
         <v>52</v>
       </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -1067,11 +1085,20 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>55</v>
       </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -1080,6 +1107,9 @@
       <c r="B28" t="s">
         <v>57</v>
       </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -1087,6 +1117,20 @@
       </c>
       <c r="B29" t="s">
         <v>59</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
